--- a/data/trans_camb/P25A_3_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P25A_3_R2-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>4,59</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>7,07</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2,92</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1,3</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4,03</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 2,89</t>
+          <t>-5,9; 7,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 7,71</t>
+          <t>-8,68; 5,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 3,48</t>
+          <t>-8,43; 6,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 2,73</t>
+          <t>0,0; 14,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 2,3</t>
+          <t>0,0; 13,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 3,24</t>
+          <t>1,54; 19,37</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-0,96; 8,36</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-2,02; 6,46</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0,06; 11,63</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-9,22%</t>
+          <t>47,85%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>94,11%</t>
+          <t>-10,06%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-5,87%</t>
+          <t>21,94%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-28,75%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-5,98%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>15,84%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>268,88%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>119,87%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>371,37%</t>
         </is>
       </c>
     </row>
@@ -735,12 +811,27 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-83,42; 264,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-80,08; 374,87</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-0,3</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-0,33</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-0,03</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 0,54</t>
+          <t>-4,7; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 0,0</t>
+          <t>-4,7; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 1,78</t>
+          <t>-2,07; 1,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 2,22</t>
+          <t>-0,96; 1,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 0,89</t>
+          <t>-0,95; 1,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 0,8</t>
+          <t>-0,95; 1,64</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-1,46; 0,51</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-1,76; 0,41</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-1,18; 0,97</t>
         </is>
       </c>
     </row>
@@ -833,7 +954,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-31,48%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -843,22 +964,37 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>162,56%</t>
+          <t>-19,21%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>309,65%</t>
+          <t>7,9%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>45,82%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>55,85%</t>
+          <t>12,49%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-54,29%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-59,18%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-5,34%</t>
         </is>
       </c>
     </row>
@@ -899,6 +1035,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>4,22</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-0,39</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,57</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,27</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2,01</t>
         </is>
       </c>
     </row>
@@ -951,17 +1117,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 0,0</t>
+          <t>-4,03; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 1,48</t>
+          <t>-3,32; 1,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,61; 10,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -971,12 +1137,27 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 0,74</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-2,15; 0,0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-1,31; 0,61</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0,35; 4,79</t>
         </is>
       </c>
     </row>
@@ -994,27 +1175,42 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-5,21%</t>
+          <t>-49,12%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>326,27%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-2,46%</t>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-47,03%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>354,5%</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,67; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1053,13 +1249,28 @@
       <c r="H15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-38,54; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 0,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 1,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 1,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 1,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 0,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 0,81</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-51,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>32,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>51,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-14,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>23,16%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 213,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-79,97; 461,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-80,93; 576,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-66,94; 711,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-77,0; 140,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-52,25; 222,96</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,68</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,6</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1,45</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0,64</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0,4</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1,39</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-0,06</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1,44</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-2,27; 0,44</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-2,1; 0,64</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-0,39; 3,74</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-0,17; 2,11</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-0,21; 2,39</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0,23; 4,06</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-0,69; 0,97</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-0,79; 0,79</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0,22; 2,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-60,17%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-53,3%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>129,16%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>305,79%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>192,19%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>664,3%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>4,07%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-10,11%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>227,62%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-45,62; 1129,37</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-80,07; 512,57</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-84,87; 423,77</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-1,14; 1154,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
